--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y428"/>
+  <dimension ref="A1:Y429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
       </c>
       <c r="R427" s="2" t="inlineStr"/>
     </row>
-    <row r="428">
+    <row r="428" ht="15" customHeight="1">
       <c r="A428" t="inlineStr">
         <is>
           <t>A 39581-2023</t>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26053,6 +26053,63 @@
         <v>0</v>
       </c>
       <c r="R428" s="2" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>A 42726-2023</t>
+        </is>
+      </c>
+      <c r="B429" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C429" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G429" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N429" t="n">
+        <v>0</v>
+      </c>
+      <c r="O429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R429" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y429"/>
+  <dimension ref="A1:Y431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
       </c>
       <c r="R428" s="2" t="inlineStr"/>
     </row>
-    <row r="429">
+    <row r="429" ht="15" customHeight="1">
       <c r="A429" t="inlineStr">
         <is>
           <t>A 42726-2023</t>
@@ -26064,7 +26064,7 @@
         <v>45181</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26110,6 +26110,120 @@
         <v>0</v>
       </c>
       <c r="R429" s="2" t="inlineStr"/>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>A 42806-2023</t>
+        </is>
+      </c>
+      <c r="B430" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C430" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G430" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N430" t="n">
+        <v>0</v>
+      </c>
+      <c r="O430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R430" s="2" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>A 42808-2023</t>
+        </is>
+      </c>
+      <c r="B431" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C431" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G431" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N431" t="n">
+        <v>0</v>
+      </c>
+      <c r="O431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R431" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,31 +634,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 34151-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 34151-2019.xlsx", "A 34151-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 34151-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 34151-2019.png", "A 34151-2019")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/knärot/A 34151-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/knärot/A 34151-2019.png", "A 34151-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 34151-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 34151-2019.docx", "A 34151-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 34151-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 34151-2019.docx", "A 34151-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 34151-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 34151-2019.docx", "A 34151-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 34151-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 34151-2019.docx", "A 34151-2019")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,27 +729,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 37759-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 37759-2020.xlsx", "A 37759-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 37759-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 37759-2020.png", "A 37759-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 37759-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 37759-2020.docx", "A 37759-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 37759-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 37759-2020.docx", "A 37759-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 37759-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 37759-2020.docx", "A 37759-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 37759-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 37759-2020.docx", "A 37759-2020")</f>
         <v/>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -819,27 +819,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 34968-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 34968-2020.xlsx", "A 34968-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 34968-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 34968-2020.png", "A 34968-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 34968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 34968-2020.docx", "A 34968-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 34968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 34968-2020.docx", "A 34968-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 34968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 34968-2020.docx", "A 34968-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 34968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 34968-2020.docx", "A 34968-2020")</f>
         <v/>
       </c>
     </row>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,31 +913,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 11177-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 11177-2020.xlsx", "A 11177-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 11177-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 11177-2020.png", "A 11177-2020")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/knärot/A 11177-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/knärot/A 11177-2020.png", "A 11177-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 11177-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 11177-2020.docx", "A 11177-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 11177-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 11177-2020.docx", "A 11177-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 11177-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 11177-2020.docx", "A 11177-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 11177-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 11177-2020.docx", "A 11177-2020")</f>
         <v/>
       </c>
     </row>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,27 +1006,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 13012-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 13012-2022.xlsx", "A 13012-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 13012-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 13012-2022.png", "A 13012-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 13012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 13012-2022.docx", "A 13012-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 13012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 13012-2022.docx", "A 13012-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 13012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 13012-2022.docx", "A 13012-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 13012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 13012-2022.docx", "A 13012-2022")</f>
         <v/>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,31 +1093,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 34145-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 34145-2019.xlsx", "A 34145-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 34145-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 34145-2019.png", "A 34145-2019")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/knärot/A 34145-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/knärot/A 34145-2019.png", "A 34145-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 34145-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 34145-2019.docx", "A 34145-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 34145-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 34145-2019.docx", "A 34145-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 34145-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 34145-2019.docx", "A 34145-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 34145-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 34145-2019.docx", "A 34145-2019")</f>
         <v/>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,27 +1184,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 37380-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 37380-2020.xlsx", "A 37380-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 37380-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 37380-2020.png", "A 37380-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 37380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 37380-2020.docx", "A 37380-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 37380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 37380-2020.docx", "A 37380-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 37380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 37380-2020.docx", "A 37380-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 37380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 37380-2020.docx", "A 37380-2020")</f>
         <v/>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,27 +1276,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 66048-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 66048-2020.xlsx", "A 66048-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 66048-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 66048-2020.png", "A 66048-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 66048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 66048-2020.docx", "A 66048-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 66048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 66048-2020.docx", "A 66048-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 66048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 66048-2020.docx", "A 66048-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 66048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 66048-2020.docx", "A 66048-2020")</f>
         <v/>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,27 +1363,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 21966-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 21966-2022.xlsx", "A 21966-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 21966-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 21966-2022.png", "A 21966-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 21966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 21966-2022.docx", "A 21966-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 21966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 21966-2022.docx", "A 21966-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 21966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 21966-2022.docx", "A 21966-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 21966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 21966-2022.docx", "A 21966-2022")</f>
         <v/>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,27 +1454,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 46853-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 46853-2018.xlsx", "A 46853-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 46853-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 46853-2018.png", "A 46853-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 46853-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 46853-2018.docx", "A 46853-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 46853-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 46853-2018.docx", "A 46853-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 46853-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 46853-2018.docx", "A 46853-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 46853-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 46853-2018.docx", "A 46853-2018")</f>
         <v/>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,27 +1545,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 46863-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 46863-2018.xlsx", "A 46863-2018")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 46863-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 46863-2018.png", "A 46863-2018")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 46863-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 46863-2018.docx", "A 46863-2018")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 46863-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 46863-2018.docx", "A 46863-2018")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 46863-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 46863-2018.docx", "A 46863-2018")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 46863-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 46863-2018.docx", "A 46863-2018")</f>
         <v/>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,27 +1631,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 12671-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 12671-2022.xlsx", "A 12671-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 12671-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 12671-2022.png", "A 12671-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 12671-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 12671-2022.docx", "A 12671-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 12671-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 12671-2022.docx", "A 12671-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 12671-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 12671-2022.docx", "A 12671-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 12671-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 12671-2022.docx", "A 12671-2022")</f>
         <v/>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,27 +1717,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 44717-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 44717-2022.xlsx", "A 44717-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 44717-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 44717-2022.png", "A 44717-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 44717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 44717-2022.docx", "A 44717-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 44717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 44717-2022.docx", "A 44717-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 44717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 44717-2022.docx", "A 44717-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 44717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 44717-2022.docx", "A 44717-2022")</f>
         <v/>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1807,27 +1807,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 8638-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 8638-2019.xlsx", "A 8638-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 8638-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 8638-2019.png", "A 8638-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 8638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 8638-2019.docx", "A 8638-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 8638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 8638-2019.docx", "A 8638-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 8638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 8638-2019.docx", "A 8638-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 8638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 8638-2019.docx", "A 8638-2019")</f>
         <v/>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,27 +1892,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 20041-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 20041-2020.xlsx", "A 20041-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 20041-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 20041-2020.png", "A 20041-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 20041-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 20041-2020.docx", "A 20041-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 20041-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 20041-2020.docx", "A 20041-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 20041-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 20041-2020.docx", "A 20041-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 20041-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 20041-2020.docx", "A 20041-2020")</f>
         <v/>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1977,27 +1977,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 23515-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 23515-2020.xlsx", "A 23515-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 23515-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 23515-2020.png", "A 23515-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 23515-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 23515-2020.docx", "A 23515-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 23515-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 23515-2020.docx", "A 23515-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 23515-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 23515-2020.docx", "A 23515-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 23515-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 23515-2020.docx", "A 23515-2020")</f>
         <v/>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,27 +2067,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 58011-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 58011-2020.xlsx", "A 58011-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 58011-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 58011-2020.png", "A 58011-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 58011-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 58011-2020.docx", "A 58011-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 58011-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 58011-2020.docx", "A 58011-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 58011-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 58011-2020.docx", "A 58011-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 58011-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 58011-2020.docx", "A 58011-2020")</f>
         <v/>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 64960-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 64960-2020.xlsx", "A 64960-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 64960-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 64960-2020.png", "A 64960-2020")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/knärot/A 64960-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/knärot/A 64960-2020.png", "A 64960-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 64960-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 64960-2020.docx", "A 64960-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 64960-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 64960-2020.docx", "A 64960-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 64960-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 64960-2020.docx", "A 64960-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 64960-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 64960-2020.docx", "A 64960-2020")</f>
         <v/>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2241,27 +2241,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 63301-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 63301-2021.xlsx", "A 63301-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 63301-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 63301-2021.png", "A 63301-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 63301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 63301-2021.docx", "A 63301-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 63301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 63301-2021.docx", "A 63301-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 63301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 63301-2021.docx", "A 63301-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 63301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 63301-2021.docx", "A 63301-2021")</f>
         <v/>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2326,27 +2326,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 65330-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 65330-2021.xlsx", "A 65330-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 65330-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 65330-2021.png", "A 65330-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 65330-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 65330-2021.docx", "A 65330-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 65330-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 65330-2021.docx", "A 65330-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 65330-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 65330-2021.docx", "A 65330-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 65330-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 65330-2021.docx", "A 65330-2021")</f>
         <v/>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,27 +2411,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 24454-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 24454-2022.xlsx", "A 24454-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 24454-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 24454-2022.png", "A 24454-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 24454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 24454-2022.docx", "A 24454-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 24454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 24454-2022.docx", "A 24454-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 24454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 24454-2022.docx", "A 24454-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 24454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 24454-2022.docx", "A 24454-2022")</f>
         <v/>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2496,27 +2496,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 33751-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 33751-2022.xlsx", "A 33751-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 33751-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 33751-2022.png", "A 33751-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 33751-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 33751-2022.docx", "A 33751-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 33751-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 33751-2022.docx", "A 33751-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 33751-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 33751-2022.docx", "A 33751-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 33751-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 33751-2022.docx", "A 33751-2022")</f>
         <v/>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2586,27 +2586,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 41511-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 41511-2022.xlsx", "A 41511-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 41511-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 41511-2022.png", "A 41511-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 41511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 41511-2022.docx", "A 41511-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 41511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 41511-2022.docx", "A 41511-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 41511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 41511-2022.docx", "A 41511-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 41511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 41511-2022.docx", "A 41511-2022")</f>
         <v/>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2676,27 +2676,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 692-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 692-2023.xlsx", "A 692-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 692-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 692-2023.png", "A 692-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 692-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 692-2023.docx", "A 692-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 692-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 692-2023.docx", "A 692-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 692-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 692-2023.docx", "A 692-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 692-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 692-2023.docx", "A 692-2023")</f>
         <v/>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2766,27 +2766,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 2303-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 2303-2023.xlsx", "A 2303-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 2303-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 2303-2023.png", "A 2303-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 2303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 2303-2023.docx", "A 2303-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 2303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 2303-2023.docx", "A 2303-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 2303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 2303-2023.docx", "A 2303-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 2303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 2303-2023.docx", "A 2303-2023")</f>
         <v/>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11458,23 +11458,23 @@
       </c>
       <c r="R175" s="2" t="inlineStr"/>
       <c r="U175">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/knärot/A 57642-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/knärot/A 57642-2020.png", "A 57642-2020")</f>
         <v/>
       </c>
       <c r="V175">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 57642-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 57642-2020.docx", "A 57642-2020")</f>
         <v/>
       </c>
       <c r="W175">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 57642-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 57642-2020.docx", "A 57642-2020")</f>
         <v/>
       </c>
       <c r="X175">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 57642-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 57642-2020.docx", "A 57642-2020")</f>
         <v/>
       </c>
       <c r="Y175">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 57642-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 57642-2020.docx", "A 57642-2020")</f>
         <v/>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45181</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>45182</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45182</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45181</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>45182</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45182</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45181</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>45182</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45182</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45181</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>45182</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45182</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y431"/>
+  <dimension ref="A1:Y432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45181</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>45182</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
       </c>
       <c r="R430" s="2" t="inlineStr"/>
     </row>
-    <row r="431">
+    <row r="431" ht="15" customHeight="1">
       <c r="A431" t="inlineStr">
         <is>
           <t>A 42808-2023</t>
@@ -26178,7 +26178,7 @@
         <v>45182</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26224,6 +26224,63 @@
         <v>0</v>
       </c>
       <c r="R431" s="2" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>A 44479-2023</t>
+        </is>
+      </c>
+      <c r="B432" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C432" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>4</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N432" t="n">
+        <v>0</v>
+      </c>
+      <c r="O432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R432" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y432"/>
+  <dimension ref="A1:Y433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,273 +1033,274 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
+          <t>A 66048-2020</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44175</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Grönpyrola
+Kantarellvaxskivling
+Purpurknipprot
+Tibast</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 66048-2020.xlsx", "A 66048-2020")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 66048-2020.png", "A 66048-2020")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 66048-2020.docx", "A 66048-2020")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 66048-2020.docx", "A 66048-2020")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 66048-2020.docx", "A 66048-2020")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 66048-2020.docx", "A 66048-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>A 34145-2019</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>43644</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>21.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Grönpyrola
 Mattlummer</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 34145-2019.xlsx", "A 34145-2019")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 34145-2019.png", "A 34145-2019")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/knärot/A 34145-2019.png", "A 34145-2019")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 34145-2019.docx", "A 34145-2019")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 34145-2019.docx", "A 34145-2019")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 34145-2019.docx", "A 34145-2019")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 34145-2019.docx", "A 34145-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 37380-2020</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44055</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2.4</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Blomkålssvamp
 Kopparödla</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 37380-2020.xlsx", "A 37380-2020")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 37380-2020.png", "A 37380-2020")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 37380-2020.docx", "A 37380-2020")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 37380-2020.docx", "A 37380-2020")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 37380-2020.docx", "A 37380-2020")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 37380-2020.docx", "A 37380-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 66048-2020</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44175</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Grönpyrola
-Kantarellvaxskivling
-Tibast</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/artfynd/A 66048-2020.xlsx", "A 66048-2020")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/kartor/A 66048-2020.png", "A 66048-2020")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomål/A 66048-2020.docx", "A 66048-2020")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/klagomålsmail/A 66048-2020.docx", "A 66048-2020")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsyn/A 66048-2020.docx", "A 66048-2020")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STRANGNAS/tillsynsmail/A 66048-2020.docx", "A 66048-2020")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1310,7 +1311,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1398,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1489,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1580,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1666,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1752,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1842,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1926,7 +1927,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2012,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,7 +2102,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2191,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2276,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2361,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2446,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2531,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,7 +2621,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2711,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,7 +2801,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2858,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,7 +2915,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2976,7 +2977,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3038,7 +3039,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,7 +3096,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3157,7 +3158,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3214,7 +3215,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3271,7 +3272,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3333,7 +3334,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3395,7 +3396,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,7 +3458,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3514,7 +3515,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3571,7 +3572,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3629,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3685,7 +3686,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3742,7 +3743,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3799,7 +3800,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,7 +3862,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,7 +3919,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3975,7 +3976,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4032,7 +4033,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4094,7 +4095,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4151,7 +4152,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4208,7 +4209,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,7 +4266,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,7 +4323,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4379,7 +4380,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,7 +4494,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4550,7 +4551,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4607,7 +4608,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4664,7 +4665,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4721,7 +4722,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4778,7 +4779,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4840,7 +4841,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4897,7 +4898,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4954,7 +4955,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5011,7 +5012,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5068,7 +5069,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5125,7 +5126,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5182,7 +5183,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5244,7 +5245,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5306,7 +5307,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5363,7 +5364,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5420,7 +5421,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5477,7 +5478,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5534,7 +5535,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5596,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5653,7 +5654,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5710,7 +5711,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5767,7 +5768,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5829,7 +5830,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5891,7 +5892,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5948,7 +5949,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6005,7 +6006,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,7 +6068,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6129,7 +6130,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6192,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6248,7 +6249,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6305,7 +6306,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6362,7 +6363,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6419,7 +6420,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6476,7 +6477,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6533,7 +6534,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6590,7 +6591,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6647,7 +6648,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6709,7 +6710,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6772,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6834,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6891,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6952,7 +6953,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7015,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7071,7 +7072,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7128,7 +7129,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7185,7 +7186,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7242,7 +7243,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7299,7 +7300,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7356,7 +7357,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7413,7 +7414,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7470,7 +7471,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7528,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7585,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7641,7 +7642,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7698,7 +7699,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7755,7 +7756,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7812,7 +7813,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7869,7 +7870,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7931,7 +7932,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7993,7 +7994,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8050,7 +8051,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8107,7 +8108,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8164,7 +8165,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8221,7 +8222,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8278,7 +8279,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8335,7 +8336,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8392,7 +8393,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8449,7 +8450,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8506,7 +8507,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8563,7 +8564,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8625,7 +8626,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8682,7 +8683,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8739,7 +8740,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8802,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8863,7 +8864,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8926,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8983,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9039,7 +9040,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9096,7 +9097,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9153,7 +9154,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9210,7 +9211,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9267,7 +9268,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9324,7 +9325,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9381,7 +9382,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9438,7 +9439,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9501,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9558,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9615,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9677,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9734,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9791,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9848,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9905,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9962,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10019,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10076,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10133,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10190,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10247,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10304,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10361,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,7 +10418,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10474,7 +10475,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10531,7 +10532,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10588,7 +10589,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10651,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10708,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10765,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10822,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10878,7 +10879,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10935,7 +10936,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +10998,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11055,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11112,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11168,7 +11169,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11225,7 +11226,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11288,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11344,7 +11345,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11407,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11489,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11550,7 +11551,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11608,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11669,7 +11670,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11726,7 +11727,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11783,7 +11784,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11840,7 +11841,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11903,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11960,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12016,7 +12017,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12074,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12130,7 +12131,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12187,7 +12188,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12245,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12301,7 +12302,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12359,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12416,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12473,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12530,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12587,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12644,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12701,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12758,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12815,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12872,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12929,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12986,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13043,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13100,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13157,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13214,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13270,7 +13271,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13327,7 +13328,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13384,7 +13385,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13441,7 +13442,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13498,7 +13499,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13555,7 +13556,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13612,7 +13613,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13669,7 +13670,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13726,7 +13727,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13783,7 +13784,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13840,7 +13841,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13897,7 +13898,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13955,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14011,7 +14012,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14068,7 +14069,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14125,7 +14126,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14183,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14240,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14296,7 +14297,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14354,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14411,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14468,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14525,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14587,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14649,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14711,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14768,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14825,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14882,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14943,7 +14944,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,7 +15001,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15058,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15115,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15172,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15229,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15286,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15343,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15400,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15456,7 +15457,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15514,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15571,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15628,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15685,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15747,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15804,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15860,7 +15861,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15918,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15974,7 +15975,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16037,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16094,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16150,7 +16151,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16208,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16264,7 +16265,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16321,7 +16322,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16379,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16440,7 +16441,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16497,7 +16498,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16554,7 +16555,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16611,7 +16612,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16668,7 +16669,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16725,7 +16726,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16782,7 +16783,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16840,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16901,7 +16902,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16958,7 +16959,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17021,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17083,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17144,7 +17145,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17202,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17259,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17315,7 +17316,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17372,7 +17373,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17429,7 +17430,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17486,7 +17487,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17543,7 +17544,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17600,7 +17601,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17657,7 +17658,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17714,7 +17715,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17771,7 +17772,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17828,7 +17829,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17885,7 +17886,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17942,7 +17943,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17999,7 +18000,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18056,7 +18057,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18113,7 +18114,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18170,7 +18171,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18227,7 +18228,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18284,7 +18285,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18341,7 +18342,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18398,7 +18399,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18455,7 +18456,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18512,7 +18513,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18569,7 +18570,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18626,7 +18627,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18688,7 +18689,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18745,7 +18746,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18802,7 +18803,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18859,7 +18860,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18916,7 +18917,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18978,7 +18979,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19035,7 +19036,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19092,7 +19093,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19149,7 +19150,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19211,7 +19212,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19268,7 +19269,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19330,7 +19331,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19387,7 +19388,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19444,7 +19445,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19501,7 +19502,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19558,7 +19559,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19615,7 +19616,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19672,7 +19673,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19729,7 +19730,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19786,7 +19787,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19843,7 +19844,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19905,7 +19906,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19967,7 +19968,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20024,7 +20025,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20081,7 +20082,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20138,7 +20139,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20195,7 +20196,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20252,7 +20253,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20309,7 +20310,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20366,7 +20367,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20423,7 +20424,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20480,7 +20481,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20537,7 +20538,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20599,7 +20600,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20656,7 +20657,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20713,7 +20714,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20770,7 +20771,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20827,7 +20828,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20884,7 +20885,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20941,7 +20942,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20998,7 +20999,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21055,7 +21056,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21112,7 +21113,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21169,7 +21170,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21231,7 +21232,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21288,7 +21289,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21345,7 +21346,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21402,7 +21403,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21459,7 +21460,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21516,7 +21517,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21573,7 +21574,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21630,7 +21631,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21687,7 +21688,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21744,7 +21745,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21801,7 +21802,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21858,7 +21859,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21915,7 +21916,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21972,7 +21973,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22029,7 +22030,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22091,7 +22092,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22153,7 +22154,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22215,7 +22216,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22272,7 +22273,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22329,7 +22330,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22386,7 +22387,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22443,7 +22444,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22500,7 +22501,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22557,7 +22558,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22614,7 +22615,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22671,7 +22672,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22728,7 +22729,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22785,7 +22786,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22842,7 +22843,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22899,7 +22900,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22956,7 +22957,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23013,7 +23014,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23070,7 +23071,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23127,7 +23128,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23184,7 +23185,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23241,7 +23242,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23303,7 +23304,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23360,7 +23361,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23422,7 +23423,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23479,7 +23480,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23536,7 +23537,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23598,7 +23599,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23655,7 +23656,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23712,7 +23713,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23769,7 +23770,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23826,7 +23827,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23883,7 +23884,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23940,7 +23941,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23997,7 +23998,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24054,7 +24055,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24111,7 +24112,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24168,7 +24169,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24225,7 +24226,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24282,7 +24283,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24339,7 +24340,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24396,7 +24397,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24453,7 +24454,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24510,7 +24511,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24567,7 +24568,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24624,7 +24625,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24681,7 +24682,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24738,7 +24739,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24795,7 +24796,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24852,7 +24853,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24909,7 +24910,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24966,7 +24967,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25023,7 +25024,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25080,7 +25081,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25137,7 +25138,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25194,7 +25195,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25251,7 +25252,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25313,7 +25314,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25370,7 +25371,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25427,7 +25428,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25484,7 +25485,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25541,7 +25542,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25598,7 +25599,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25655,7 +25656,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25717,7 +25718,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25774,7 +25775,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25831,7 +25832,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25888,7 +25889,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25950,7 +25951,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26007,7 +26008,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26064,7 +26065,7 @@
         <v>45181</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26121,7 +26122,7 @@
         <v>45182</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26178,7 +26179,7 @@
         <v>45182</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26225,7 +26226,7 @@
       </c>
       <c r="R431" s="2" t="inlineStr"/>
     </row>
-    <row r="432">
+    <row r="432" ht="15" customHeight="1">
       <c r="A432" t="inlineStr">
         <is>
           <t>A 44479-2023</t>
@@ -26235,7 +26236,7 @@
         <v>45189</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26281,6 +26282,68 @@
         <v>0</v>
       </c>
       <c r="R432" s="2" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>A 45742-2023</t>
+        </is>
+      </c>
+      <c r="B433" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C433" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G433" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N433" t="n">
+        <v>0</v>
+      </c>
+      <c r="O433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R433" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y433"/>
+  <dimension ref="A1:Y434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>44175</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>43644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44055</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13613,7 +13613,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45181</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45182</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45182</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45189</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
       </c>
       <c r="R432" s="2" t="inlineStr"/>
     </row>
-    <row r="433">
+    <row r="433" ht="15" customHeight="1">
       <c r="A433" t="inlineStr">
         <is>
           <t>A 45742-2023</t>
@@ -26293,7 +26293,7 @@
         <v>45195</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26344,6 +26344,63 @@
         <v>0</v>
       </c>
       <c r="R433" s="2" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>A 46882-2023</t>
+        </is>
+      </c>
+      <c r="B434" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C434" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G434" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N434" t="n">
+        <v>0</v>
+      </c>
+      <c r="O434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R434" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>44175</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>43644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44055</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13613,7 +13613,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45181</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45182</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45182</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45189</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45195</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45201</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>44175</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>43644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44055</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13613,7 +13613,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45181</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45182</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45182</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45189</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45195</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45201</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43644</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44056</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44039</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43892</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>44175</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>43644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>44055</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43367</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43367</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44840</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43966</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44141</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>44167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>44726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44930</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44942</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43370</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43448</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43544</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43557</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43563</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43591</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43628</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43644</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43649</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43651</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43651</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43664</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43668</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43679</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43690</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43691</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43699</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43700</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43725</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43734</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43740</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43742</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43775</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43780</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43783</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43790</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43797</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43801</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43809</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43839</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43847</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43847</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43857</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43865</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>43880</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43881</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43885</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43895</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43896</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>43902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43914</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43920</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43922</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43937</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43943</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>43949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43959</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44015</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44024</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44025</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44026</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44026</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44040</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44046</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44054</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44081</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44085</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44099</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44105</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44105</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44124</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44124</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44126</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44126</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44131</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44140</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44140</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44158</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44174</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44175</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44179</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44186</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44186</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44188</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44210</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44210</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44210</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44210</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44210</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44210</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44210</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44210</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44218</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44218</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44218</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44236</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44244</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44272</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44272</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44273</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44274</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44277</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44277</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>44279</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44279</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44284</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>44287</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13613,7 +13613,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>44294</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>44331</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>44358</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44363</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>44369</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>44377</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44377</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>44377</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44378</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44384</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44384</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44385</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44398</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44398</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44398</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>44406</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>44406</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>44412</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44414</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44432</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44432</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44439</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44439</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44448</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44452</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44453</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44456</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44459</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44459</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44475</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44488</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44495</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44496</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44496</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44508</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44511</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44524</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44525</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44529</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44537</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44540</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>44566</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44571</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44574</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44579</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>44579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44579</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44582</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>44587</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44596</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>44608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44608</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44616</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44623</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44623</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44637</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44641</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44644</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44650</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44650</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44659</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44664</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44671</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44676</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44678</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44705</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44706</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>44708</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44711</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44711</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44713</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>44713</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>44729</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44760</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44788</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44790</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44799</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44805</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44816</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44826</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>44831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44833</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44834</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44834</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44834</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>44834</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>44834</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44834</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44840</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44854</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44858</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>44867</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>44872</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>44872</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>44872</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>44872</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>44873</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>44874</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>44875</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44880</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44881</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44882</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44886</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44894</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44900</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44900</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44901</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44901</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44901</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44903</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44904</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>44928</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44936</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44939</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44953</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44953</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>44963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>44979</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>44980</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>44980</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>44980</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44987</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>44991</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44992</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44993</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44994</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44998</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45001</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45006</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>45006</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45007</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45012</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>45014</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45016</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45041</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45044</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45044</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45044</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45049</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45050</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45051</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45051</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45051</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45051</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45051</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45051</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45056</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45057</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45058</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45061</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45071</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45071</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45071</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45072</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45072</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45075</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45076</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45077</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45078</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45078</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45078</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45078</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45082</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45082</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45089</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45113</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45114</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45117</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45121</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45128</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45131</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45152</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45167</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45181</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45182</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45182</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45189</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45195</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45201</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
